--- a/test_data/orange_data.xlsx
+++ b/test_data/orange_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25811"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2EA01DEA0B5B1E866B0F3841CEDDC011807FED5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9804" windowHeight="3264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9804" windowHeight="3264" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidCredentialTest" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,28 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -36,6 +48,9 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Expected Error</t>
+  </si>
+  <si>
     <t>saul</t>
   </si>
   <si>
@@ -63,14 +78,23 @@
     <t>mark123</t>
   </si>
   <si>
-    <t>Expected Error</t>
+    <t>ExpectedValue</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Employee Information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,20 +404,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,51 +425,51 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -454,48 +478,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
